--- a/biology/Biologie cellulaire et moléculaire/Multiplex_Ligation-dependent_Probe_Amplification/Multiplex_Ligation-dependent_Probe_Amplification.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Multiplex_Ligation-dependent_Probe_Amplification/Multiplex_Ligation-dependent_Probe_Amplification.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La MLPA (multiplex ligation-dependent probe amplification = amplification multiplex de sondes dépendant d'une ligation) est une variante de la PCR multiplex qui utilise une sonde divisée en deux, nécessitant la ligation des deux parties pour que l'amplification ait lieu.
 Cette méthode est utilisée pour dénombrer les copies d'une même séquence dans un ADN.
@@ -518,7 +530,9 @@
           <t>Ploïdie relative</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'une des utilisations importantes de la MLPA est la détermination de la ploïdie. Par exemple, on peut utiliser des sondes reconnaissant différentes régions du chromosome 21 d'une cellule humaine. On compare l'intensité du signal de MLPA entre une cellule de référence connue pour avoir deux copies du chromosome, et la cellule de l'individu à diagnostiquer. Si une copie supplémentaire du chromosome est présente, l'intensité relative sera 1,5 ; s'il manque une copie, l'intensité sera 0,5.
 </t>
@@ -549,7 +563,9 @@
           <t>Avantages de la MLPA</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La MLPA facilite l'amplification et la détection de cibles multiples avec une seule paire d'amorces. On évite les problèmes causés par la présence d'une grande quantité et un grand nombre d'amorces différentes. La MLPA peut amplifier jusqu'à 40 sondes différentes simultanément, ce qui en fait une méthode rapide, peu coûteuse et facile à réaliser.
 </t>
